--- a/MSBA 601 Fund Tech for Bus Analytics/scarlett/Week8/salary_summary_sorted.xlsx
+++ b/MSBA 601 Fund Tech for Bus Analytics/scarlett/Week8/salary_summary_sorted.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="chart" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chart" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -142,13 +142,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -172,7 +172,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -200,8 +200,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -227,8 +227,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -254,13 +254,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -284,7 +284,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -312,8 +312,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -339,8 +339,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -366,13 +366,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -396,7 +396,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -424,8 +424,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -451,8 +451,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -478,13 +478,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -508,7 +508,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -536,8 +536,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -563,8 +563,120 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Total Salary</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Total Salary by Department</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$9</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$B$2:$B$9</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Department</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -590,7 +702,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -605,9 +717,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -627,9 +739,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -649,9 +761,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -671,9 +783,31 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1195,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1209,6 +1343,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>